--- a/SeqData.xlsx
+++ b/SeqData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Dropbox\My PC (DESKTOP-IOO274E)\Desktop\Data\Lemna_singleinoculations\16S seqs (CAGEF)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C6CA74-0129-4F23-9D3F-7815629590AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191638AF-81F4-498B-B8E6-B069F5CC7F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{82E4023A-85B1-4B56-9213-E44E03EEC169}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="354">
   <si>
     <t>C2_F_E07_028_2022-09-21.ab1</t>
   </si>
@@ -1095,6 +1095,9 @@
   </si>
   <si>
     <t xml:space="preserve">Caulobacter segnis, or just sp.? The reverse seems off. </t>
+  </si>
+  <si>
+    <t>ID (1 to 10)</t>
   </si>
 </sst>
 </file>
@@ -1142,15 +1145,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1465,896 +1468,956 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B609A85-CB99-4D06-BCB7-F391F69B6959}">
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D29" sqref="D28:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="60.5703125" style="1" customWidth="1"/>
-    <col min="6" max="17" width="83.140625" style="1" customWidth="1"/>
-    <col min="18" max="20" width="72.140625" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="60.5703125" style="1" customWidth="1"/>
+    <col min="7" max="18" width="83.140625" style="1" customWidth="1"/>
+    <col min="19" max="21" width="72.140625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>166</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>167</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>168</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>169</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>170</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>171</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>172</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>173</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>174</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>175</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" t="s">
         <v>165</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>11</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="Q13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>13</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>13</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="O15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="P15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>4</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="O17" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="P17" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>4</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="5"/>
+      <c r="G18" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="O18" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="P18" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>5</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="O19" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="P19" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>5</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="O20" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="P20" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>6</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>177</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>178</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>179</v>
-      </c>
-      <c r="I21" t="s">
-        <v>180</v>
       </c>
       <c r="J21" t="s">
         <v>180</v>
@@ -2369,35 +2432,38 @@
         <v>180</v>
       </c>
       <c r="N21" t="s">
+        <v>180</v>
+      </c>
+      <c r="O21" t="s">
         <v>181</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>49</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>51</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>6</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" t="s">
-        <v>180</v>
-      </c>
+      <c r="F22" s="5"/>
       <c r="G22" t="s">
         <v>180</v>
       </c>
@@ -2411,517 +2477,553 @@
         <v>180</v>
       </c>
       <c r="K22" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" t="s">
         <v>183</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>184</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>185</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>186</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>48</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>49</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>7</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>7</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" t="s">
         <v>189</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>190</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>191</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>192</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>193</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>194</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>195</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>196</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>197</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>198</v>
       </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>7.2</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="F25" t="s">
-        <v>200</v>
       </c>
       <c r="G25" t="s">
         <v>200</v>
       </c>
       <c r="H25" t="s">
+        <v>200</v>
+      </c>
+      <c r="I25" t="s">
         <v>202</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>207</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>204</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>203</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>206</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>199</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>208</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>209</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>210</v>
       </c>
-      <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>7.2</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" t="s">
+      <c r="F26" s="5"/>
+      <c r="G26" t="s">
         <v>199</v>
-      </c>
-      <c r="G26" t="s">
-        <v>200</v>
       </c>
       <c r="H26" t="s">
         <v>200</v>
       </c>
       <c r="I26" t="s">
+        <v>200</v>
+      </c>
+      <c r="J26" t="s">
         <v>201</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>199</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>202</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>203</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>204</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>205</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>206</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>207</v>
       </c>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>139</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>140</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>212</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>213</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>141</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>142</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>143</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>214</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>215</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>216</v>
       </c>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="5"/>
+      <c r="G28" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>10</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>218</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>219</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>220</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>221</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>222</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>223</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>224</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>225</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>226</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>227</v>
       </c>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>10</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" t="s">
+      <c r="F30" s="5"/>
+      <c r="G30" t="s">
         <v>218</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>221</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>219</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>223</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>220</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>222</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>228</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>229</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>230</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>231</v>
       </c>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>15</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="F31" t="s">
-        <v>200</v>
       </c>
       <c r="G31" t="s">
         <v>200</v>
       </c>
       <c r="H31" t="s">
+        <v>200</v>
+      </c>
+      <c r="I31" t="s">
         <v>204</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>202</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>207</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>206</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>203</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>209</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>233</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>199</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>208</v>
       </c>
-      <c r="Q31" s="3"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>15</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" t="s">
-        <v>200</v>
-      </c>
+      <c r="F32" s="5"/>
       <c r="G32" t="s">
         <v>200</v>
       </c>
       <c r="H32" t="s">
+        <v>200</v>
+      </c>
+      <c r="I32" t="s">
         <v>199</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>201</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>199</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>202</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>207</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>203</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>210</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>206</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>204</v>
       </c>
-      <c r="Q32" s="3"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="R32" s="2"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>17</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2">
+        <v>10</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>17</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2">
+        <v>10</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" t="s">
-        <v>235</v>
-      </c>
+      <c r="F34" s="5"/>
       <c r="G34" t="s">
         <v>235</v>
       </c>
@@ -2952,546 +3054,546 @@
       <c r="P34" t="s">
         <v>235</v>
       </c>
-      <c r="Q34" s="3"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q34" t="s">
+        <v>235</v>
+      </c>
+      <c r="R34" s="2"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>237</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>238</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>239</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>240</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>241</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>242</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>243</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>244</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>245</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" t="s">
+      <c r="F37" s="5"/>
+      <c r="G37" t="s">
         <v>247</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>244</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>248</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>249</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>250</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>251</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>252</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>241</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>253</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B38" s="1">
         <v>2</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B39" s="1">
         <v>2</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s">
+      <c r="F39" s="5"/>
+      <c r="G39" t="s">
         <v>255</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>256</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>257</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>258</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>259</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>260</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>261</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>262</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>263</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B40" s="1">
         <v>3</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s">
+      <c r="F41" s="5"/>
+      <c r="G41" t="s">
         <v>266</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>267</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>268</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>269</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>270</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>271</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>272</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>273</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>274</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B42" s="1">
         <v>4</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>183</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>181</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>49</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>51</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>277</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>182</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>278</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>279</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>280</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B43" s="1">
         <v>4</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" t="s">
+      <c r="F43" s="5"/>
+      <c r="G43" t="s">
         <v>282</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>283</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>284</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>285</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>286</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>287</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>288</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>48</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>49</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B44" s="1">
         <v>5</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>237</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>238</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>239</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>241</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>242</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>240</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>244</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>290</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>291</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B45" s="1">
         <v>5</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" t="s">
+      <c r="F45" s="5"/>
+      <c r="G45" t="s">
         <v>239</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>238</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>241</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>251</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>247</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>292</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>252</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>244</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>248</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B46" s="1">
         <v>6</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B47" s="1">
         <v>6</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" t="s">
+      <c r="F47" s="5"/>
+      <c r="G47" t="s">
         <v>266</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>268</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>271</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>267</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>272</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>274</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>293</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>270</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>294</v>
-      </c>
-      <c r="O47" t="s">
-        <v>295</v>
       </c>
       <c r="P47" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q47" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B48" s="1">
         <v>7</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>298</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>299</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>300</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>301</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>302</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>303</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>304</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>305</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>306</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B49" s="1">
         <v>7</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="2"/>
-      <c r="F49" t="s">
-        <v>308</v>
-      </c>
+      <c r="F49" s="5"/>
       <c r="G49" t="s">
         <v>308</v>
       </c>
@@ -3502,352 +3604,355 @@
         <v>308</v>
       </c>
       <c r="J49" t="s">
+        <v>308</v>
+      </c>
+      <c r="K49" t="s">
         <v>309</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>310</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>311</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>312</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>313</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>314</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>315</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="R49" t="s">
         <v>316</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B50" s="1">
         <v>8</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B51" s="1">
         <v>8</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s">
+      <c r="F51" s="5"/>
+      <c r="G51" t="s">
         <v>239</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>238</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>247</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>244</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>248</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>249</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>250</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>252</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>251</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B52" s="1">
         <v>9</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="F52" t="s">
-        <v>319</v>
       </c>
       <c r="G52" t="s">
         <v>319</v>
       </c>
       <c r="H52" t="s">
+        <v>319</v>
+      </c>
+      <c r="I52" t="s">
         <v>320</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>321</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>322</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>323</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>324</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>325</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>326</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>327</v>
       </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B53" s="1">
         <v>9</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s">
+      <c r="F53" s="5"/>
+      <c r="G53" t="s">
         <v>329</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>330</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>331</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>332</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>333</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>334</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>335</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>336</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>337</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B54" s="1">
         <v>10</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>340</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>341</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>342</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>343</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>344</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>345</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>346</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>347</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>348</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B55" s="1">
         <v>10</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="5"/>
+      <c r="G55" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B56" s="1">
         <v>11</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="G56" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="H56" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="I56" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="J56" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="J56" s="5" t="s">
+      <c r="K56" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="K56" s="5" t="s">
+      <c r="L56" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="L56" s="5" t="s">
+      <c r="M56" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="M56" s="5" t="s">
+      <c r="N56" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="N56" s="5" t="s">
+      <c r="O56" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="O56" s="5" t="s">
+      <c r="P56" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B57" s="1">
         <v>11</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="5"/>
+      <c r="G57" s="4" t="s">
         <v>351</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
